--- a/tests/testthat/fixtures/ex3/tables/dif_poly_sex.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/dif_poly_sex.xlsx
@@ -528,16 +528,16 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>24293</v>
+        <v>24451</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>24357</v>
+        <v>24515</v>
       </c>
       <c r="G2" t="n">
-        <v>24538</v>
+        <v>24696</v>
       </c>
     </row>
     <row r="3">
@@ -551,16 +551,16 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>24266</v>
+        <v>24427</v>
       </c>
       <c r="E3" t="n">
         <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>24370</v>
+        <v>24531</v>
       </c>
       <c r="G3" t="n">
-        <v>24664</v>
+        <v>24825</v>
       </c>
     </row>
   </sheetData>
@@ -668,16 +668,16 @@
         <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001</v>
+        <v>-0.035</v>
       </c>
       <c r="C2" t="n">
         <v>0.076</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001</v>
+        <v>-0.029</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -697,16 +697,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.258</v>
+        <v>-0.28</v>
       </c>
       <c r="C3" t="n">
         <v>0.053</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.214</v>
+        <v>-0.231</v>
       </c>
       <c r="E3" t="n">
-        <v>23.697</v>
+        <v>27.91</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -726,16 +726,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.096</v>
+        <v>-0.038</v>
       </c>
       <c r="C4" t="n">
         <v>0.066</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.08</v>
+        <v>-0.031</v>
       </c>
       <c r="E4" t="n">
-        <v>2.116</v>
+        <v>0.331</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -755,16 +755,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.084</v>
+        <v>-0.109</v>
       </c>
       <c r="C5" t="n">
         <v>0.04</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07</v>
+        <v>-0.09</v>
       </c>
       <c r="E5" t="n">
-        <v>4.41</v>
+        <v>7.426</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -784,16 +784,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.29</v>
+        <v>-0.077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.087</v>
+        <v>0.086</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.24</v>
+        <v>-0.064</v>
       </c>
       <c r="E6" t="n">
-        <v>11.111</v>
+        <v>0.802</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -813,16 +813,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09</v>
+        <v>0.142</v>
       </c>
       <c r="C7" t="n">
         <v>0.101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.075</v>
+        <v>0.117</v>
       </c>
       <c r="E7" t="n">
-        <v>0.794</v>
+        <v>1.977</v>
       </c>
       <c r="F7" t="n">
         <v>117.283</v>
@@ -842,16 +842,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.27</v>
+        <v>0.314</v>
       </c>
       <c r="F8" t="n">
         <v>117.283</v>
@@ -871,16 +871,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>0.027</v>
+        <v>0.037</v>
       </c>
       <c r="C9" t="n">
         <v>0.097</v>
       </c>
       <c r="D9" t="n">
-        <v>0.022</v>
+        <v>0.031</v>
       </c>
       <c r="E9" t="n">
-        <v>0.077</v>
+        <v>0.145</v>
       </c>
       <c r="F9" t="n">
         <v>117.283</v>
@@ -900,16 +900,16 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>0.187</v>
+        <v>0.216</v>
       </c>
       <c r="C10" t="n">
         <v>0.096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.155</v>
+        <v>0.178</v>
       </c>
       <c r="E10" t="n">
-        <v>3.794</v>
+        <v>5.062</v>
       </c>
       <c r="F10" t="n">
         <v>117.283</v>
@@ -929,16 +929,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.068</v>
+        <v>0.067</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>117.283</v>
@@ -958,16 +958,16 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.162</v>
+        <v>-0.187</v>
       </c>
       <c r="C12" t="n">
         <v>0.095</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.134</v>
+        <v>-0.154</v>
       </c>
       <c r="E12" t="n">
-        <v>2.908</v>
+        <v>3.875</v>
       </c>
       <c r="F12" t="n">
         <v>117.283</v>
@@ -987,16 +987,16 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>0.012</v>
+        <v>-0.062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.096</v>
+        <v>0.095</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01</v>
+        <v>-0.051</v>
       </c>
       <c r="E13" t="n">
-        <v>0.016</v>
+        <v>0.426</v>
       </c>
       <c r="F13" t="n">
         <v>117.283</v>
@@ -1016,16 +1016,16 @@
         <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.203</v>
+        <v>-0.21</v>
       </c>
       <c r="C14" t="n">
         <v>0.096</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.168</v>
+        <v>-0.173</v>
       </c>
       <c r="E14" t="n">
-        <v>4.471</v>
+        <v>4.785</v>
       </c>
       <c r="F14" t="n">
         <v>117.283</v>
@@ -1045,16 +1045,16 @@
         <v>37</v>
       </c>
       <c r="B15" t="n">
-        <v>0.075</v>
+        <v>0.111</v>
       </c>
       <c r="C15" t="n">
-        <v>0.098</v>
+        <v>0.099</v>
       </c>
       <c r="D15" t="n">
-        <v>0.062</v>
+        <v>0.092</v>
       </c>
       <c r="E15" t="n">
-        <v>0.586</v>
+        <v>1.257</v>
       </c>
       <c r="F15" t="n">
         <v>117.283</v>
@@ -1074,16 +1074,16 @@
         <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.193</v>
+        <v>-0.19</v>
       </c>
       <c r="C16" t="n">
         <v>0.103</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.16</v>
+        <v>-0.157</v>
       </c>
       <c r="E16" t="n">
-        <v>3.511</v>
+        <v>3.403</v>
       </c>
       <c r="F16" t="n">
         <v>117.283</v>
@@ -1103,16 +1103,16 @@
         <v>39</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.068</v>
+        <v>-0.055</v>
       </c>
       <c r="C17" t="n">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.056</v>
+        <v>-0.045</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.694</v>
       </c>
       <c r="F17" t="n">
         <v>117.283</v>
@@ -1132,16 +1132,16 @@
         <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>0.257</v>
+        <v>0.251</v>
       </c>
       <c r="C18" t="n">
         <v>0.095</v>
       </c>
       <c r="D18" t="n">
-        <v>0.213</v>
+        <v>0.207</v>
       </c>
       <c r="E18" t="n">
-        <v>7.318</v>
+        <v>6.981</v>
       </c>
       <c r="F18" t="n">
         <v>117.283</v>
@@ -1161,16 +1161,16 @@
         <v>41</v>
       </c>
       <c r="B19" t="n">
-        <v>0.314</v>
+        <v>0.285</v>
       </c>
       <c r="C19" t="n">
         <v>0.095</v>
       </c>
       <c r="D19" t="n">
-        <v>0.26</v>
+        <v>0.235</v>
       </c>
       <c r="E19" t="n">
-        <v>10.925</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>117.283</v>
@@ -1190,16 +1190,16 @@
         <v>42</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.177</v>
+        <v>-0.191</v>
       </c>
       <c r="C20" t="n">
         <v>0.061</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.147</v>
+        <v>-0.158</v>
       </c>
       <c r="E20" t="n">
-        <v>8.42</v>
+        <v>9.804</v>
       </c>
       <c r="F20" t="n">
         <v>117.283</v>
@@ -1219,16 +1219,16 @@
         <v>43</v>
       </c>
       <c r="B21" t="n">
-        <v>0.483</v>
+        <v>0.385</v>
       </c>
       <c r="C21" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4</v>
+        <v>0.318</v>
       </c>
       <c r="E21" t="n">
-        <v>23.803</v>
+        <v>14.823</v>
       </c>
       <c r="F21" t="n">
         <v>117.283</v>
@@ -1248,16 +1248,16 @@
         <v>44</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.02</v>
+        <v>0.047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.017</v>
+        <v>0.039</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003</v>
+        <v>0.015</v>
       </c>
       <c r="F22" t="n">
         <v>117.283</v>
@@ -1302,10 +1302,10 @@
         <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.379</v>
+        <v>-0.384</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.314</v>
+        <v>-0.317</v>
       </c>
     </row>
     <row r="3">
@@ -1313,10 +1313,10 @@
         <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.282</v>
+        <v>-0.276</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.234</v>
+        <v>-0.228</v>
       </c>
     </row>
   </sheetData>
